--- a/data/all_overviews-updated-inriched2.xlsx
+++ b/data/all_overviews-updated-inriched2.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Mega-database_of_overviews\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\My_R\overview_megadatabase\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30108023-83EE-4EE9-8DEE-578B0F31024E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5150D9F6-32A6-4299-9AC3-D5D309A30020}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4669" uniqueCount="4258">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4682" uniqueCount="4266">
   <si>
     <t>Abdolahi H.</t>
   </si>
@@ -12961,6 +12961,30 @@
   </si>
   <si>
     <t>Astur N.</t>
+  </si>
+  <si>
+    <t>The effects of vitamin D on acute viral respiratory infections: A rapid review</t>
+  </si>
+  <si>
+    <t>Bradley R.</t>
+  </si>
+  <si>
+    <t>rapid review</t>
+  </si>
+  <si>
+    <t>Advances in Integrative Medicine</t>
+  </si>
+  <si>
+    <t>National University of Natural Medicine</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1016/j.aimed.2020.07.011</t>
+  </si>
+  <si>
+    <t>rapid</t>
+  </si>
+  <si>
+    <t>surgery</t>
   </si>
 </sst>
 </file>
@@ -13469,13 +13493,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P2230"/>
+  <dimension ref="A1:P2231"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="O2226" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="D2225" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="O2236" sqref="O2236"/>
+      <selection pane="bottomRight" activeCell="O2232" sqref="O2232"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -40679,7 +40703,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="2225" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="2225" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A2225" s="3" t="s">
         <v>1446</v>
       </c>
@@ -40690,7 +40714,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="2226" spans="1:15" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="2226" spans="1:16" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A2226" s="3" t="s">
         <v>4251</v>
       </c>
@@ -40701,7 +40725,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="2227" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="2227" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A2227" s="3" t="s">
         <v>2856</v>
       </c>
@@ -40712,7 +40736,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="2228" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="2228" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A2228" s="3" t="s">
         <v>4253</v>
       </c>
@@ -40723,7 +40747,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="2229" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="2229" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A2229" s="3" t="s">
         <v>1314</v>
       </c>
@@ -40734,7 +40758,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="2230" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="2230" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A2230" s="3" t="s">
         <v>4257</v>
       </c>
@@ -40744,8 +40768,55 @@
       <c r="C2230" s="4">
         <v>2022</v>
       </c>
+      <c r="N2230" s="18" t="s">
+        <v>4265</v>
+      </c>
       <c r="O2230" s="18" t="s">
+        <v>4035</v>
+      </c>
+      <c r="P2230" s="4" t="s">
         <v>4193</v>
+      </c>
+    </row>
+    <row r="2231" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A2231" s="3" t="s">
+        <v>4259</v>
+      </c>
+      <c r="B2231" s="6" t="s">
+        <v>4258</v>
+      </c>
+      <c r="C2231" s="4">
+        <v>2020</v>
+      </c>
+      <c r="D2231" s="18" t="s">
+        <v>4260</v>
+      </c>
+      <c r="E2231" s="18" t="s">
+        <v>4261</v>
+      </c>
+      <c r="F2231" s="4" t="s">
+        <v>4136</v>
+      </c>
+      <c r="G2231" s="18" t="s">
+        <v>4262</v>
+      </c>
+      <c r="K2231" s="27" t="s">
+        <v>4263</v>
+      </c>
+      <c r="L2231" s="4" t="s">
+        <v>4043</v>
+      </c>
+      <c r="M2231" s="4">
+        <v>20</v>
+      </c>
+      <c r="N2231" s="18" t="s">
+        <v>4044</v>
+      </c>
+      <c r="O2231" s="18" t="s">
+        <v>4035</v>
+      </c>
+      <c r="P2231" s="4" t="s">
+        <v>4264</v>
       </c>
     </row>
   </sheetData>
@@ -40764,8 +40835,9 @@
     <hyperlink ref="K13" r:id="rId12" xr:uid="{265C87BC-C5D9-4EC4-B19A-8B806A0E33B4}"/>
     <hyperlink ref="K2201" r:id="rId13" xr:uid="{5B22D11B-8E4A-47BD-8AA7-E2FB6F395DDE}"/>
     <hyperlink ref="K2215" r:id="rId14" xr:uid="{C1AF1856-8693-430E-8A0A-5D1DEE944806}"/>
+    <hyperlink ref="K2231" r:id="rId15" xr:uid="{3687DC42-4C39-42A9-B9D4-56A960999759}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId15"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId16"/>
 </worksheet>
 </file>